--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>35.74057489879323</v>
+        <v>48.0713381632395</v>
       </c>
       <c r="R2">
-        <v>35.74057489879323</v>
+        <v>192.285352652958</v>
       </c>
       <c r="S2">
-        <v>0.03739037306538171</v>
+        <v>0.03740788837787348</v>
       </c>
       <c r="T2">
-        <v>0.03739037306538171</v>
+        <v>0.02244863485775199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>82.83765966046229</v>
+        <v>118.476838308587</v>
       </c>
       <c r="R3">
-        <v>82.83765966046229</v>
+        <v>710.8610298515221</v>
       </c>
       <c r="S3">
-        <v>0.08666147669248561</v>
+        <v>0.09219565154939137</v>
       </c>
       <c r="T3">
-        <v>0.08666147669248561</v>
+        <v>0.08299051110015411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>18.96670367884288</v>
+        <v>26.68215335808</v>
       </c>
       <c r="R4">
-        <v>18.96670367884288</v>
+        <v>160.09292014848</v>
       </c>
       <c r="S4">
-        <v>0.01984221374112333</v>
+        <v>0.02076337070357718</v>
       </c>
       <c r="T4">
-        <v>0.01984221374112333</v>
+        <v>0.01869028221931593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>20.10624338829789</v>
+        <v>27.329241009943</v>
       </c>
       <c r="R5">
-        <v>20.10624338829789</v>
+        <v>163.975446059658</v>
       </c>
       <c r="S5">
-        <v>0.02103435502536379</v>
+        <v>0.02126691779788508</v>
       </c>
       <c r="T5">
-        <v>0.02103435502536379</v>
+        <v>0.01914355338793739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>33.41288104594488</v>
+        <v>47.541214047521</v>
       </c>
       <c r="R6">
-        <v>33.41288104594488</v>
+        <v>285.247284285126</v>
       </c>
       <c r="S6">
-        <v>0.03495523200269739</v>
+        <v>0.03699535932199666</v>
       </c>
       <c r="T6">
-        <v>0.03495523200269739</v>
+        <v>0.03330161159305373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N7">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O7">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P7">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q7">
-        <v>51.02272911996165</v>
+        <v>78.52982096050501</v>
       </c>
       <c r="R7">
-        <v>51.02272911996165</v>
+        <v>314.11928384202</v>
       </c>
       <c r="S7">
-        <v>0.05337795718204005</v>
+        <v>0.06110990226336972</v>
       </c>
       <c r="T7">
-        <v>0.05337795718204005</v>
+        <v>0.03667231542838781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N8">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O8">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P8">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q8">
-        <v>20.09449158908701</v>
+        <v>22.295613429027</v>
       </c>
       <c r="R8">
-        <v>20.09449158908701</v>
+        <v>133.773680574162</v>
       </c>
       <c r="S8">
-        <v>0.02102206075875145</v>
+        <v>0.01734987729355637</v>
       </c>
       <c r="T8">
-        <v>0.02102206075875145</v>
+        <v>0.01561760408348356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N9">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P9">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q9">
-        <v>46.57397537729634</v>
+        <v>54.94987009206201</v>
       </c>
       <c r="R9">
-        <v>46.57397537729634</v>
+        <v>494.548830828558</v>
       </c>
       <c r="S9">
-        <v>0.04872384731992126</v>
+        <v>0.04276058635610033</v>
       </c>
       <c r="T9">
-        <v>0.04872384731992126</v>
+        <v>0.05773682690556032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N10">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O10">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P10">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q10">
-        <v>10.66368598228906</v>
+        <v>12.37525310208</v>
       </c>
       <c r="R10">
-        <v>10.66368598228906</v>
+        <v>111.37727791872</v>
       </c>
       <c r="S10">
-        <v>0.01115592567436099</v>
+        <v>0.009630106096038506</v>
       </c>
       <c r="T10">
-        <v>0.01115592567436099</v>
+        <v>0.01300290328385159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N11">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O11">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P11">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q11">
-        <v>11.30437156644422</v>
+        <v>12.675374061718</v>
       </c>
       <c r="R11">
-        <v>11.30437156644422</v>
+        <v>114.078366555462</v>
       </c>
       <c r="S11">
-        <v>0.01182618554222849</v>
+        <v>0.009863652566491953</v>
       </c>
       <c r="T11">
-        <v>0.01182618554222849</v>
+        <v>0.01331824582912638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N12">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O12">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P12">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q12">
-        <v>18.78578783486704</v>
+        <v>22.049740465946</v>
       </c>
       <c r="R12">
-        <v>18.78578783486704</v>
+        <v>198.447664193514</v>
       </c>
       <c r="S12">
-        <v>0.01965294675482415</v>
+        <v>0.01715854522938878</v>
       </c>
       <c r="T12">
-        <v>0.01965294675482415</v>
+        <v>0.02316806293558028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N13">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O13">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P13">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q13">
-        <v>28.68660630268575</v>
+        <v>36.42233808513</v>
       </c>
       <c r="R13">
-        <v>28.68660630268575</v>
+        <v>218.53402851078</v>
       </c>
       <c r="S13">
-        <v>0.03001079066787385</v>
+        <v>0.02834293384808692</v>
       </c>
       <c r="T13">
-        <v>0.03001079066787385</v>
+        <v>0.0255130749292494</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N14">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O14">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P14">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q14">
-        <v>50.95658116216012</v>
+        <v>0.1531828941215</v>
       </c>
       <c r="R14">
-        <v>50.95658116216012</v>
+        <v>0.9190973647289999</v>
       </c>
       <c r="S14">
-        <v>0.05330875581002196</v>
+        <v>0.0001192030183399106</v>
       </c>
       <c r="T14">
-        <v>0.05330875581002196</v>
+        <v>0.0001073013667180438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N15">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P15">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q15">
-        <v>118.1045335651349</v>
+        <v>0.3775352563901111</v>
       </c>
       <c r="R15">
-        <v>118.1045335651349</v>
+        <v>3.397817307511</v>
       </c>
       <c r="S15">
-        <v>0.1235562825505192</v>
+        <v>0.0002937883002506664</v>
       </c>
       <c r="T15">
-        <v>0.1235562825505192</v>
+        <v>0.0003966831534346257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N16">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O16">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P16">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q16">
-        <v>27.04148934723013</v>
+        <v>0.08502466602666665</v>
       </c>
       <c r="R16">
-        <v>27.04148934723013</v>
+        <v>0.76522199424</v>
       </c>
       <c r="S16">
-        <v>0.02828973450481959</v>
+        <v>6.616402491836061E-05</v>
       </c>
       <c r="T16">
-        <v>0.02828973450481959</v>
+        <v>8.933696143157735E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N17">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O17">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P17">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q17">
-        <v>28.66617075923253</v>
+        <v>0.08708665895322222</v>
       </c>
       <c r="R17">
-        <v>28.66617075923253</v>
+        <v>0.783779930579</v>
       </c>
       <c r="S17">
-        <v>0.02998941181217068</v>
+        <v>6.77686151831588E-05</v>
       </c>
       <c r="T17">
-        <v>0.02998941181217068</v>
+        <v>9.150353486444568E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N18">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O18">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P18">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q18">
-        <v>47.63790704823776</v>
+        <v>0.1514936142014444</v>
       </c>
       <c r="R18">
-        <v>47.63790704823776</v>
+        <v>1.363442527813</v>
       </c>
       <c r="S18">
-        <v>0.04983689047060426</v>
+        <v>0.0001178884638235825</v>
       </c>
       <c r="T18">
-        <v>0.04983689047060426</v>
+        <v>0.0001591770929720556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.1958908183617</v>
+        <v>17.446105</v>
       </c>
       <c r="N19">
-        <v>15.1958908183617</v>
+        <v>34.89221</v>
       </c>
       <c r="O19">
-        <v>0.2107621351095285</v>
+        <v>0.2265518959828062</v>
       </c>
       <c r="P19">
-        <v>0.2107621351095285</v>
+        <v>0.1719711468337415</v>
       </c>
       <c r="Q19">
-        <v>72.74488015031963</v>
+        <v>0.2502411147516667</v>
       </c>
       <c r="R19">
-        <v>72.74488015031963</v>
+        <v>1.50144668851</v>
       </c>
       <c r="S19">
-        <v>0.07610281074434451</v>
+        <v>0.0001947312483042836</v>
       </c>
       <c r="T19">
-        <v>0.07610281074434451</v>
+        <v>0.0001752885906477462</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N20">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O20">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P20">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q20">
-        <v>34.32952433527895</v>
+        <v>4.255594589425</v>
       </c>
       <c r="R20">
-        <v>34.32952433527895</v>
+        <v>25.53356753655</v>
       </c>
       <c r="S20">
-        <v>0.03591418788555973</v>
+        <v>0.00331159508899273</v>
       </c>
       <c r="T20">
-        <v>0.03591418788555973</v>
+        <v>0.002980953704145511</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H21">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I21">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J21">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N21">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P21">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q21">
-        <v>79.56719949928434</v>
+        <v>10.48835774793889</v>
       </c>
       <c r="R21">
-        <v>79.56719949928434</v>
+        <v>94.39521973145001</v>
       </c>
       <c r="S21">
-        <v>0.08324005087971725</v>
+        <v>0.008161772292873955</v>
       </c>
       <c r="T21">
-        <v>0.08324005087971725</v>
+        <v>0.01102030805171675</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H22">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I22">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J22">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N22">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O22">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P22">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q22">
-        <v>18.21789149577574</v>
+        <v>2.362081685333334</v>
       </c>
       <c r="R22">
-        <v>18.21789149577574</v>
+        <v>21.258735168</v>
       </c>
       <c r="S22">
-        <v>0.01905883611051537</v>
+        <v>0.001838111677364091</v>
       </c>
       <c r="T22">
-        <v>0.01905883611051537</v>
+        <v>0.002481882144114224</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H23">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I23">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J23">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N23">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O23">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P23">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q23">
-        <v>19.312441773647</v>
+        <v>2.419366188227778</v>
       </c>
       <c r="R23">
-        <v>19.312441773647</v>
+        <v>21.77429569405</v>
       </c>
       <c r="S23">
-        <v>0.02020391123435748</v>
+        <v>0.001882689015377453</v>
       </c>
       <c r="T23">
-        <v>0.02020391123435748</v>
+        <v>0.002542072012123855</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H24">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I24">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J24">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N24">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O24">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P24">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q24">
-        <v>32.09372866067901</v>
+        <v>4.208664476705555</v>
       </c>
       <c r="R24">
-        <v>32.09372866067901</v>
+        <v>37.87798029035</v>
       </c>
       <c r="S24">
-        <v>0.0335751870550476</v>
+        <v>0.003275075273126391</v>
       </c>
       <c r="T24">
-        <v>0.0335751870550476</v>
+        <v>0.00442212023409737</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.446105</v>
+      </c>
+      <c r="N25">
+        <v>34.89221</v>
+      </c>
+      <c r="O25">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P25">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q25">
+        <v>6.951982074083333</v>
+      </c>
+      <c r="R25">
+        <v>41.7118924445</v>
+      </c>
+      <c r="S25">
+        <v>0.005409855006515207</v>
+      </c>
+      <c r="T25">
+        <v>0.004869715918520329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.6794795</v>
+      </c>
+      <c r="N26">
+        <v>21.358959</v>
+      </c>
+      <c r="O26">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P26">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q26">
+        <v>67.71863646672399</v>
+      </c>
+      <c r="R26">
+        <v>406.3118188003439</v>
+      </c>
+      <c r="S26">
+        <v>0.05269691443676448</v>
+      </c>
+      <c r="T26">
+        <v>0.04743546782317898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N27">
+        <v>78.962081</v>
+      </c>
+      <c r="O27">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P27">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q27">
+        <v>166.8996589173662</v>
+      </c>
+      <c r="R27">
+        <v>1502.096930256296</v>
+      </c>
+      <c r="S27">
+        <v>0.1298770545950879</v>
+      </c>
+      <c r="T27">
+        <v>0.1753645040718863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.92768</v>
+      </c>
+      <c r="N28">
+        <v>17.78304</v>
+      </c>
+      <c r="O28">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P28">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q28">
+        <v>37.58745049429333</v>
+      </c>
+      <c r="R28">
+        <v>338.28705444864</v>
+      </c>
+      <c r="S28">
+        <v>0.02924959458637662</v>
+      </c>
+      <c r="T28">
+        <v>0.03949381717144102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.214309</v>
+      </c>
+      <c r="O29">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P29">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q29">
+        <v>38.49901017066044</v>
+      </c>
+      <c r="R29">
+        <v>346.491091535944</v>
+      </c>
+      <c r="S29">
+        <v>0.02995894705972607</v>
+      </c>
+      <c r="T29">
+        <v>0.04045160948578717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N30">
+        <v>31.685123</v>
+      </c>
+      <c r="O30">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P30">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q30">
+        <v>66.97184464344087</v>
+      </c>
+      <c r="R30">
+        <v>602.7466017909679</v>
+      </c>
+      <c r="S30">
+        <v>0.05211578010112317</v>
+      </c>
+      <c r="T30">
+        <v>0.0703685339973717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>17.446105</v>
+      </c>
+      <c r="N31">
+        <v>34.89221</v>
+      </c>
+      <c r="O31">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P31">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q31">
+        <v>110.6258448508933</v>
+      </c>
+      <c r="R31">
+        <v>663.7550691053599</v>
+      </c>
+      <c r="S31">
+        <v>0.08608620883066531</v>
+      </c>
+      <c r="T31">
+        <v>0.07749105678486502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.6794795</v>
+      </c>
+      <c r="N32">
+        <v>21.358959</v>
+      </c>
+      <c r="O32">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P32">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q32">
+        <v>35.71984197454125</v>
+      </c>
+      <c r="R32">
+        <v>142.879367898165</v>
+      </c>
+      <c r="S32">
+        <v>0.02779626930545328</v>
+      </c>
+      <c r="T32">
+        <v>0.01668066087405631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N33">
+        <v>78.962081</v>
+      </c>
+      <c r="O33">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P33">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q33">
+        <v>88.03528471903917</v>
+      </c>
+      <c r="R33">
+        <v>528.2117083142349</v>
+      </c>
+      <c r="S33">
+        <v>0.06850681154123713</v>
+      </c>
+      <c r="T33">
+        <v>0.06166684879496073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.92768</v>
+      </c>
+      <c r="N34">
+        <v>17.78304</v>
+      </c>
+      <c r="O34">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P34">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q34">
+        <v>19.8264150304</v>
+      </c>
+      <c r="R34">
+        <v>118.9584901824</v>
+      </c>
+      <c r="S34">
+        <v>0.0154284101239718</v>
+      </c>
+      <c r="T34">
+        <v>0.01388798300281294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N25">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O25">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P25">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q25">
-        <v>49.00833369177872</v>
-      </c>
-      <c r="R25">
-        <v>49.00833369177872</v>
-      </c>
-      <c r="S25">
-        <v>0.05127057651527014</v>
-      </c>
-      <c r="T25">
-        <v>0.05127057651527014</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.214309</v>
+      </c>
+      <c r="O35">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P35">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q35">
+        <v>20.30723935423583</v>
+      </c>
+      <c r="R35">
+        <v>121.843436125415</v>
+      </c>
+      <c r="S35">
+        <v>0.01580257534014155</v>
+      </c>
+      <c r="T35">
+        <v>0.01422479023833848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N36">
+        <v>31.685123</v>
+      </c>
+      <c r="O36">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P36">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q36">
+        <v>35.32592846258416</v>
+      </c>
+      <c r="R36">
+        <v>211.955570775505</v>
+      </c>
+      <c r="S36">
+        <v>0.02748973586476169</v>
+      </c>
+      <c r="T36">
+        <v>0.02474506325499112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17.446105</v>
+      </c>
+      <c r="N37">
+        <v>34.89221</v>
+      </c>
+      <c r="O37">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P37">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q37">
+        <v>58.35229270033749</v>
+      </c>
+      <c r="R37">
+        <v>233.40917080135</v>
+      </c>
+      <c r="S37">
+        <v>0.04540826478586479</v>
+      </c>
+      <c r="T37">
+        <v>0.02724969518207121</v>
       </c>
     </row>
   </sheetData>
